--- a/ToothGrowth.xlsx
+++ b/ToothGrowth.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fanhang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fanhang\Desktop\learn_python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921B3F68-FF20-4327-8055-223BCBA58BD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E74A4D-1CA0-40B0-85DD-12E50479C1AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="353" windowWidth="20520" windowHeight="12877" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ToothGrowth" sheetId="1" r:id="rId1"/>
+    <sheet name="ToothGrowth1" sheetId="1" r:id="rId1"/>
+    <sheet name="ToothGrowth2" sheetId="2" r:id="rId2"/>
+    <sheet name="ToothGrowth3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="7">
   <si>
     <t>len</t>
   </si>
@@ -35,6 +37,14 @@
   </si>
   <si>
     <t>OJ</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>detail_id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -744,7 +754,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>ToothGrowth!$B$1</c:f>
+              <c:f>ToothGrowth2!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -827,7 +837,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>ToothGrowth!$A$2:$A$61</c:f>
+              <c:f>ToothGrowth2!$A$2:$A$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -1016,7 +1026,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ToothGrowth!$B$2:$B$61</c:f>
+              <c:f>ToothGrowth2!$B$2:$B$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -1206,7 +1216,806 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-82E6-4517-AEC1-3A30D7FD1709}"/>
+              <c16:uniqueId val="{00000001-900C-4908-86D5-3D00B1352691}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="881499376"/>
+        <c:axId val="1391523040"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="881499376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1391523040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1391523040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="881499376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ToothGrowth3!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>len</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10605502954725628"/>
+                  <c:y val="-4.5366582698289477E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ToothGrowth3!$A$2:$A$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ToothGrowth3!$B$2:$B$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>33.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>23.3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>19.7</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>23.3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>23.6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>26.4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>25.2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>25.8</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>21.2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>27.3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>26.4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>24.8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>30.9</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>26.4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>27.3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>29.4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-545B-4824-9B28-FD80D4B90E99}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1489,6 +2298,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2044,6 +2893,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2064,11 +3429,56 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBE4C4DE-F87B-4723-90A0-170E269976ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18CB9141-4C09-4A5F-8330-31B358881512}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4764</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>433388</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADFEFEEB-C5A2-4BEB-939D-3CCDE370ED45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2382,9 +3792,1062 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>4.2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>11.5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>7.3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>5.8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>6.4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>11.2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>11.2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>5.2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>16.5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>16.5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>15.2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>17.3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>22.5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>17.3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>13.6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>14.5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>18.8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>15.5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>23.6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>18.5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>33.9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>25.5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>26.4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>32.5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>26.7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>21.5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>23.3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>29.5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>15.2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>21.5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="D34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="D35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>14.5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>9.4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>16.5</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="D41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>19.7</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>23.3</v>
+      </c>
+      <c r="D43" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>23.6</v>
+      </c>
+      <c r="D44" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>26.4</v>
+      </c>
+      <c r="D45" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>20</v>
+      </c>
+      <c r="D46" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>25.2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>25.8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>21.2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>14.5</v>
+      </c>
+      <c r="D50" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>27.3</v>
+      </c>
+      <c r="D51" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>25.5</v>
+      </c>
+      <c r="D52" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>26.4</v>
+      </c>
+      <c r="D53" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>22.4</v>
+      </c>
+      <c r="D54" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>24.5</v>
+      </c>
+      <c r="D55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>24.8</v>
+      </c>
+      <c r="D56" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>30.9</v>
+      </c>
+      <c r="D57" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>26.4</v>
+      </c>
+      <c r="D58" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>27.3</v>
+      </c>
+      <c r="D59" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>29.4</v>
+      </c>
+      <c r="D60" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>23</v>
+      </c>
+      <c r="D61" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC3D0E1-7A5B-4D37-9DBF-9DBBC9AC461B}">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
@@ -3246,4 +5709,872 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63871D7D-2272-4D0F-81AB-D4F8247EDC9D}">
+  <dimension ref="A1:D61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>4.2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>11.5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>7.3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>5.8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>6.4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>11.2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>11.2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>5.2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>16.5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>16.5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>15.2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>17.3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>22.5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>17.3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>13.6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>14.5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>18.8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>15.5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>23.6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>18.5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>33.9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>25.5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>26.4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>32.5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>26.7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>21.5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>23.3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>29.5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>15.2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>21.5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>14.5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>9.4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>16.5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>19.7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>23.3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>23.6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>26.4</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>20</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>25.2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>25.8</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>21.2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>14.5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>27.3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>25.5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>26.4</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>22.4</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>24.5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>24.8</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>30.9</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>26.4</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>27.3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>29.4</v>
+      </c>
+      <c r="C60" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>23</v>
+      </c>
+      <c r="C61" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>